--- a/thermometer_by_gauge.xlsx
+++ b/thermometer_by_gauge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,6 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,8 +490,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>3.51</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -509,7 +506,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,8 +523,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3.46</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -541,7 +539,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -559,8 +556,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3.44</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -573,7 +572,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -591,8 +589,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3.39</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -605,7 +605,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -623,8 +622,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>3.28</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -637,7 +638,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -655,8 +655,10 @@
           <t>Historic</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>3.15</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -669,7 +671,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -706,7 +707,14 @@
 property flooding but result thresholds not yet known</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>River
+3.07
+lake
+3.07</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
@@ -715,7 +723,6 @@
 consider issuing group flood warning message</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -744,7 +751,14 @@
 charlemont / bustleholme mill estate will become affected</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>River
+3.07
+lake
+2.47</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -752,7 +766,6 @@
           <t>The storage lake has only 1 hour of storage remaining</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -784,7 +797,15 @@
 flooding of low lying land and roads</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>River
+3.07
+a
+lake
+0.00</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>110.36</t>
@@ -797,7 +818,6 @@
 the lake does not have an automated gauge just a gauge board</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -815,8 +835,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>3.05</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -829,7 +851,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -849,8 +870,11 @@
 (1) arrange monitoring of reach and sites.</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2.8</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80
+a</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -859,14 +883,15 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0.8100000000000001</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -874,10 +899,9 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mean Water Level</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mean water level</t>
         </is>
       </c>
     </row>
@@ -885,8 +909,10 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -894,10 +920,9 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>STATION DATUM</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Station datum</t>
         </is>
       </c>
     </row>
@@ -912,7 +937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,11 +981,6 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -978,8 +998,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>4.43</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -992,7 +1014,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1010,8 +1031,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3.8</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1024,7 +1047,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1042,8 +1064,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3.78</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1056,7 +1080,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1079,8 +1102,10 @@
 b50 4bg</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3.8</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1089,7 +1114,6 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1112,8 +1136,10 @@
 fwdo to ensure flood warning has not been previously issued from stratford</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>3.65</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1122,7 +1148,6 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1140,8 +1165,10 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>3.6</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1150,7 +1177,6 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1172,8 +1198,10 @@
           <t>Fwdo to ensure flood warning has not been previously issued from stratford</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>3.35</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1182,7 +1210,6 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1204,8 +1231,10 @@
           <t>Fwdo to ensure alert has not been previously issued. if alert already issued, flood alert systems update only.</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2.7</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1214,7 +1243,6 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1226,8 +1254,11 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>2.6</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60
+a</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1236,14 +1267,15 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1251,10 +1283,9 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Mean Water Level</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mean water level</t>
         </is>
       </c>
     </row>
@@ -1262,8 +1293,10 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1271,10 +1304,9 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>STATION DATUM</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Station datum</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,11 +1365,6 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1358,8 +1385,10 @@
           <t>First property expected to flood at this level</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2.2</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1368,7 +1397,6 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1386,8 +1414,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1.96</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1400,7 +1430,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1419,8 +1448,10 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>1.7</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1429,7 +1460,6 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1447,8 +1477,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1.69</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1461,7 +1493,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1479,8 +1510,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1.52</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1493,7 +1526,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1511,8 +1543,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1.44</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1525,7 +1559,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1543,8 +1576,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1.37</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1557,7 +1592,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1575,8 +1609,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1.3</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1589,7 +1625,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1612,8 +1647,10 @@
 fwdo to ensure alert has not been previously issued. if alert already issued, flood alert systems update only.</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1.3</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1622,7 +1659,6 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1634,8 +1670,11 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>1.2</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.20
+a</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1644,14 +1683,15 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>0.15</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1659,10 +1699,9 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Mean Water Level</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mean water level</t>
         </is>
       </c>
     </row>
@@ -1670,8 +1709,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1679,10 +1720,9 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>STATION DATUM</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Station datum</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1741,11 +1781,6 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1766,8 +1801,10 @@
           <t>Professional partners to be informed</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>3.5</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1776,7 +1813,6 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1794,8 +1830,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3.25</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1808,7 +1846,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1833,8 +1870,10 @@
           <t>Professional partners to be informed</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3.1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1843,7 +1882,6 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1868,8 +1906,10 @@
           <t>Professional partners to be informed</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2.9</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1878,7 +1918,6 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1896,8 +1935,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2.74</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1910,7 +1951,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1928,8 +1968,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2.74</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1942,7 +1984,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1967,8 +2008,10 @@
           <t>Property flooding at riverside properties at leamington</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2.7</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1977,7 +2020,6 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2001,8 +2043,10 @@
           <t>Property flooding at eathorpe, hunningham &amp; offchurch</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2.3</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2011,7 +2055,6 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2040,8 +2083,11 @@
 include forecast peak information in fw msg for leam003. this is included in the scripting tool. community uses the forecast peak to decide activation of their flood plan.</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2.1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10
+a</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2050,7 +2096,6 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2075,8 +2120,10 @@
 fwdo to ensure alert has not already been issued. if alert already issued, flood alert systems update only.</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1.5</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2085,7 +2132,6 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -2097,8 +2143,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>1.3</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30
+a</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2107,14 +2156,15 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0.26</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2122,10 +2172,9 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mean Water Level</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mean water level</t>
         </is>
       </c>
     </row>
@@ -2133,8 +2182,10 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2142,10 +2193,9 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>STATION DATUM</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Station datum</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2204,11 +2254,6 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Threshold</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2230,8 +2275,10 @@
 copse cottage, pennyford lane, wootton wawen, b95 6ez</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2.45</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2240,7 +2287,6 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2258,8 +2304,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2.42</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2272,7 +2320,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2290,8 +2337,10 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>2.2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2300,7 +2349,6 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2325,8 +2373,10 @@
 1 beaudesert place, henley-in-arden, b95 5bf</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2.11</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2335,7 +2385,6 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2353,8 +2402,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2.08</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2367,7 +2418,6 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2385,8 +2435,10 @@
           <t>Historic data</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1.78</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2399,7 +2451,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2425,8 +2476,10 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>1.9</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2444,7 +2497,6 @@
 swwm – operational documents – duty officer procedures – fido and fodo – 04- contingency plans and operating instructions-swwm – 04-brcs – below required conditions assets assessments – contingency plans</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2466,8 +2518,10 @@
 bird in hand, birmingham rd, henley-in-arden, b95 5qr</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1.66</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2476,7 +2530,6 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2494,8 +2547,10 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>1.45</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2504,7 +2559,6 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2525,8 +2579,10 @@
           <t>Fwdo to ensure alert has not been previously issued. if alert already issued, flood alert systems update only.</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1.2</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2535,7 +2591,6 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -2547,8 +2602,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00
+a</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2557,14 +2615,15 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>0.39</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2572,10 +2631,9 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mean Water Level</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mean water level</t>
         </is>
       </c>
     </row>
@@ -2583,8 +2641,10 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2592,10 +2652,9 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>STATION DATUM</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Station datum</t>
         </is>
       </c>
     </row>
